--- a/selenium_input_data.xlsx
+++ b/selenium_input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\EBL_Retail_IDE_TO_Seleium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse Files\Retail_IDE_Webdriver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528F073F-432E-41AA-B1D7-59616239BCC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B10CCE-9E4D-4AB6-BCD9-E3D1095E12C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestInput" sheetId="1" r:id="rId1"/>
@@ -58,16 +58,16 @@
     <t>rafi468</t>
   </si>
   <si>
-    <t>Sakif Abdullah</t>
-  </si>
-  <si>
-    <t>Sakif</t>
-  </si>
-  <si>
-    <t>BUSINESSMAN</t>
-  </si>
-  <si>
-    <t>Employed</t>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Rafi</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>PROFESSIONAL.</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,10 +531,10 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
@@ -546,7 +546,7 @@
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{95CBBEC5-4FE3-40CC-9752-05452073C9C9}">
-      <formula1>"BUSINESSMAN, SALARIED,LAND LORD, PROFESSIONAL"</formula1>
+      <formula1>"BUSINESSMAN, SALARIED,LAND LORD, PROFESSIONAL."</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{74014DC1-07B2-4EC3-990B-EC8583768808}">
       <formula1>"Employed, Priority, Regular, Self-Employed Professionals, Salaried Individuals"</formula1>
